--- a/Trivia.xlsx
+++ b/Trivia.xlsx
@@ -1,85 +1,185 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliss\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E21900C-D627-470A-A72E-D4DDEE461FF2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Questions &amp; Answers" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Configuration" sheetId="2" r:id="rId4"/>
+    <sheet name="Questions &amp; Answers" sheetId="1" r:id="rId1"/>
+    <sheet name="Configuration" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A7">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">We recommend that you keep the questions short and end with a question mark. This column is required.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>We recommend that you keep the questions short and end with a question mark. This column is required.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B7">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t xml:space="preserve">Put the correct answer. This is required.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Put the correct answer. This is required.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C7">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
-        <t xml:space="preserve">Put an incorrect answer. This is required.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Put an incorrect answer. This is required.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D7">
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
-        <t xml:space="preserve">Required. We recommend no more than 3 choices. However, if you want a 4th choice, add another column.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Required. We recommend no more than 3 choices. However, if you want a 4th choice, add another column.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E7">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
-        <t xml:space="preserve">Optional. Provide an additional follow up explanation of the answer to the user. The column header has to be 'Follow Up'.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Optional. Provide an additional follow up explanation of the answer to the user. The column header has to be 'Follow Up'.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F7">
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
-        <t xml:space="preserve">This column should contain the difficulty or Grade level associated with the question. There is no restriction on the taxonomy. You can use Easy, Medium, Hard; Grade 1, Grade 2, Grade 3; Grade 1-4, Grade 4-8, Grade 8-12</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>This column should contain the difficulty or Grade level associated with the question. There is no restriction on the taxonomy. You can use Easy, Medium, Hard; Grade 1, Grade 2, Grade 3; Grade 1-4, Grade 4-8, Grade 8-12</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B10">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
-        <t xml:space="preserve">We automatically generate synonyms for answers with multiple words. For this question, 'Angel', 'Victoria' or 'Niagara' would be also accepted as answers.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>We automatically generate synonyms for answers with multiple words. For this question, 'Angel', 'Victoria' or 'Niagara' would be also accepted as answers.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B11">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
-        <t xml:space="preserve">We automatically generate synonyms for names, so the user can answer the full name, first name or last name as the answer.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>We automatically generate synonyms for names, so the user can answer the full name, first name or last name as the answer.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A12">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
-        <t xml:space="preserve">We recommend that you keep the questions short and end with a question mark.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>We recommend that you keep the questions short and end with a question mark.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B12">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
-        <t xml:space="preserve">We automatically generate synonyms for each word in the answer. For this example, just saying '10' would be accepted as the answer.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>We automatically generate synonyms for each word in the answer. For this example, just saying '10' would be accepted as the answer.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B18">
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
-        <t xml:space="preserve">For answers that have acronyms, we recommend that you list the common ones so that users don't have to say the full answer.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>For answers that have acronyms, we recommend that you list the common ones so that users don't have to say the full answer.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A19">
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
-        <t xml:space="preserve">For TRUE/FALSE questions we automatically add prompts to ask the user to answer true or false.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>For TRUE/FALSE questions we automatically add prompts to ask the user to answer true or false.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B19">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
-        <t xml:space="preserve">For TRUE/FALSE questions, add the values 'TRUE' or 'FALSE' in the first two columns as the answers.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>For TRUE/FALSE questions, add the values 'TRUE' or 'FALSE' in the first two columns as the answers.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -87,19 +187,33 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A8">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <t xml:space="preserve">The title value is used at the beginning of the game: "Welcome to [The Movie Trivia Game]!"</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>The title value is used at the beginning of the game: "Welcome to [The Movie Trivia Game]!"</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A9">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
-        <t xml:space="preserve">The title value is used at the beginning of the game: "Welcome to [The Fun Trivia Game]!"</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>The title value is used at the beginning of the game: "Welcome to [The Fun Trivia Game]!"</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -107,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="378">
   <si>
     <t>Trivia Game Configuration</t>
   </si>
@@ -919,13 +1033,15 @@
   <si>
     <r>
       <rPr>
-        <sz val="9.0"/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>The great Indian batsman Sunil Gavaskar, scored tons of runs in test cricket. However in one day cricket, he has scored only one century. Against which team did he score his only one day hundred</t>
     </r>
     <r>
       <rPr>
-        <sz val="1.0"/>
+        <sz val="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>?</t>
     </r>
@@ -1245,99 +1361,128 @@
   <si>
     <t>Nolan Bushnel</t>
   </si>
+  <si>
+    <t>Which state has the USA's 10 highest mountain peaks?</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="20">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="23.0"/>
+      <sz val="23"/>
       <color rgb="FFF3F3F3"/>
       <name val="Roboto"/>
     </font>
     <font>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFF3F3F3"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFF3F3F3"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
-      <sz val="22.0"/>
+      <sz val="22"/>
       <color rgb="FFF3F3F3"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFF3F3F3"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF666666"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFB6D7A8"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFF4CCCC"/>
       <name val="Roboto"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="1.0"/>
+      <sz val="1"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="PbRegular"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="PbRegular"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1345,7 +1490,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1367,7 +1512,13 @@
     </fill>
   </fills>
   <borders count="8">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1381,6 +1532,7 @@
       <bottom style="thin">
         <color rgb="FF5B95F9"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1393,8 +1545,10 @@
       <bottom style="thin">
         <color rgb="FF5B95F9"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF5B95F9"/>
       </right>
@@ -1404,23 +1558,29 @@
       <bottom style="thin">
         <color rgb="FF5B95F9"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
         <color rgb="FF5B95F9"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF5B95F9"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF5B95F9"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF5B95F9"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1429,9 +1589,11 @@
       <right style="thin">
         <color rgb="FF5B95F9"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF5B95F9"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1440,239 +1602,457 @@
       <right style="thin">
         <color rgb="FF5B95F9"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE8F0FE"/>
+          <bgColor rgb="FFE8F0FE"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFFFF"/>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE8F0FE"/>
-          <bgColor rgb="FFE8F0FE"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="2" pivot="0" name="Questions &amp; Answers-style">
-      <tableStyleElement dxfId="1" type="firstRowStripe"/>
-      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    <tableStyle name="Questions &amp; Answers-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A7:Z24" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A7:Z24" headerRowCount="0">
   <tableColumns count="26">
-    <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-    <tableColumn name="Column3" id="3"/>
-    <tableColumn name="Column4" id="4"/>
-    <tableColumn name="Column5" id="5"/>
-    <tableColumn name="Column6" id="6"/>
-    <tableColumn name="Column7" id="7"/>
-    <tableColumn name="Column8" id="8"/>
-    <tableColumn name="Column9" id="9"/>
-    <tableColumn name="Column10" id="10"/>
-    <tableColumn name="Column11" id="11"/>
-    <tableColumn name="Column12" id="12"/>
-    <tableColumn name="Column13" id="13"/>
-    <tableColumn name="Column14" id="14"/>
-    <tableColumn name="Column15" id="15"/>
-    <tableColumn name="Column16" id="16"/>
-    <tableColumn name="Column17" id="17"/>
-    <tableColumn name="Column18" id="18"/>
-    <tableColumn name="Column19" id="19"/>
-    <tableColumn name="Column20" id="20"/>
-    <tableColumn name="Column21" id="21"/>
-    <tableColumn name="Column22" id="22"/>
-    <tableColumn name="Column23" id="23"/>
-    <tableColumn name="Column24" id="24"/>
-    <tableColumn name="Column25" id="25"/>
-    <tableColumn name="Column26" id="26"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column13"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Column15"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Column16"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Column17"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Column18"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Column19"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Column20"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Column21"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Column22"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Column23"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Column24"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Column25"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Column26"/>
   </tableColumns>
-  <tableStyleInfo name="Questions &amp; Answers-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Questions &amp; Answers-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="50.57"/>
-    <col customWidth="1" min="2" max="2" width="21.29"/>
-    <col customWidth="1" min="3" max="3" width="22.0"/>
-    <col customWidth="1" min="4" max="4" width="21.86"/>
-    <col customWidth="1" min="5" max="6" width="26.57"/>
-    <col customWidth="1" min="7" max="14" width="14.43"/>
-    <col customWidth="1" min="15" max="26" width="17.29"/>
+    <col min="1" max="1" width="50.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="6" width="26.5546875" customWidth="1"/>
+    <col min="7" max="14" width="14.44140625" customWidth="1"/>
+    <col min="15" max="26" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1700,7 +2080,7 @@
       <c r="Y1" s="9"/>
       <c r="Z1" s="9"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
@@ -1730,7 +2110,7 @@
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
@@ -1760,7 +2140,7 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
@@ -1790,7 +2170,7 @@
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="16" t="s">
         <v>8</v>
       </c>
@@ -1820,7 +2200,7 @@
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1848,7 +2228,7 @@
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="19" t="s">
         <v>21</v>
       </c>
@@ -1890,7 +2270,7 @@
       <c r="Y7" s="23"/>
       <c r="Z7" s="23"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="24" t="s">
         <v>39</v>
       </c>
@@ -1930,7 +2310,7 @@
       <c r="Y8" s="23"/>
       <c r="Z8" s="23"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="24" t="s">
         <v>43</v>
       </c>
@@ -1972,7 +2352,7 @@
       <c r="Y9" s="23"/>
       <c r="Z9" s="23"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="25" t="s">
         <v>48</v>
       </c>
@@ -2012,18 +2392,18 @@
       <c r="Y10" s="23"/>
       <c r="Z10" s="23"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="24" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="24">
-        <v>2010.0</v>
+        <v>2010</v>
       </c>
       <c r="C11" s="27">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="D11" s="27">
-        <v>2006.0</v>
+        <v>2006</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="27" t="s">
@@ -2052,7 +2432,7 @@
       <c r="Y11" s="23"/>
       <c r="Z11" s="23"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="26" t="s">
         <v>53</v>
       </c>
@@ -2094,7 +2474,7 @@
       <c r="Y12" s="23"/>
       <c r="Z12" s="23"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="24" t="s">
         <v>58</v>
       </c>
@@ -2134,7 +2514,7 @@
       <c r="Y13" s="23"/>
       <c r="Z13" s="23"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="26" t="s">
         <v>59</v>
       </c>
@@ -2174,7 +2554,7 @@
       <c r="Y14" s="23"/>
       <c r="Z14" s="23"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="24" t="s">
         <v>63</v>
       </c>
@@ -2216,7 +2596,7 @@
       <c r="Y15" s="23"/>
       <c r="Z15" s="23"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="26" t="s">
         <v>68</v>
       </c>
@@ -2258,7 +2638,7 @@
       <c r="Y16" s="23"/>
       <c r="Z16" s="23"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="26" t="s">
         <v>73</v>
       </c>
@@ -2300,7 +2680,7 @@
       <c r="Y17" s="23"/>
       <c r="Z17" s="23"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="24" t="s">
         <v>77</v>
       </c>
@@ -2342,7 +2722,7 @@
       <c r="Y18" s="23"/>
       <c r="Z18" s="23"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="26" t="s">
         <v>82</v>
       </c>
@@ -2384,7 +2764,7 @@
       <c r="Y19" s="23"/>
       <c r="Z19" s="23"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="26" t="s">
         <v>87</v>
       </c>
@@ -2424,7 +2804,7 @@
       <c r="Y20" s="23"/>
       <c r="Z20" s="23"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="33" t="s">
         <v>90</v>
       </c>
@@ -2466,7 +2846,7 @@
       <c r="Y21" s="23"/>
       <c r="Z21" s="23"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="25" t="s">
         <v>95</v>
       </c>
@@ -2508,7 +2888,7 @@
       <c r="Y22" s="23"/>
       <c r="Z22" s="23"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="33" t="s">
         <v>100</v>
       </c>
@@ -2550,7 +2930,7 @@
       <c r="Y23" s="23"/>
       <c r="Z23" s="23"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="33" t="s">
         <v>105</v>
       </c>
@@ -2592,7 +2972,7 @@
       <c r="Y24" s="23"/>
       <c r="Z24" s="23"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -2622,7 +3002,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>115</v>
       </c>
@@ -2652,7 +3032,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" t="s">
         <v>119</v>
       </c>
@@ -2680,7 +3060,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -2708,7 +3088,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" t="s">
         <v>127</v>
       </c>
@@ -2736,7 +3116,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>131</v>
       </c>
@@ -2766,7 +3146,7 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>136</v>
       </c>
@@ -2793,7 +3173,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>140</v>
       </c>
@@ -2821,7 +3201,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>144</v>
       </c>
@@ -2851,7 +3231,7 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1">
       <c r="A34" t="s">
         <v>148</v>
       </c>
@@ -2881,7 +3261,7 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>153</v>
       </c>
@@ -2909,7 +3289,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>157</v>
       </c>
@@ -2937,7 +3317,7 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>160</v>
       </c>
@@ -2967,7 +3347,7 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>165</v>
       </c>
@@ -2997,7 +3377,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1">
       <c r="A39" s="38" t="s">
         <v>170</v>
       </c>
@@ -3027,7 +3407,7 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>175</v>
       </c>
@@ -3057,7 +3437,7 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>180</v>
       </c>
@@ -3085,7 +3465,7 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1">
       <c r="A42" t="s">
         <v>182</v>
       </c>
@@ -3113,7 +3493,7 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>186</v>
       </c>
@@ -3143,7 +3523,7 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>191</v>
       </c>
@@ -3173,18 +3553,18 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>196</v>
       </c>
       <c r="B45" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C45" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D45" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>197</v>
@@ -3203,18 +3583,18 @@
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B46" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D46" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>199</v>
@@ -3233,7 +3613,7 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>200</v>
       </c>
@@ -3263,7 +3643,7 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1">
       <c r="A48" t="s">
         <v>205</v>
       </c>
@@ -3293,7 +3673,7 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1">
       <c r="A49" t="s">
         <v>210</v>
       </c>
@@ -3323,7 +3703,7 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>215</v>
       </c>
@@ -3351,7 +3731,7 @@
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>219</v>
       </c>
@@ -3381,7 +3761,7 @@
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>224</v>
       </c>
@@ -3411,7 +3791,7 @@
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1">
       <c r="A53" s="39" t="s">
         <v>229</v>
       </c>
@@ -3441,7 +3821,7 @@
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>234</v>
       </c>
@@ -3471,7 +3851,7 @@
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>239</v>
       </c>
@@ -3501,7 +3881,7 @@
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1">
       <c r="A56" t="s">
         <v>244</v>
       </c>
@@ -3529,7 +3909,7 @@
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>248</v>
       </c>
@@ -3559,7 +3939,7 @@
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1">
       <c r="A58" s="4" t="s">
         <v>253</v>
       </c>
@@ -3589,7 +3969,7 @@
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>258</v>
       </c>
@@ -3619,7 +3999,7 @@
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1">
       <c r="A60" s="4" t="s">
         <v>263</v>
       </c>
@@ -3649,7 +4029,7 @@
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1">
       <c r="A61" s="40" t="s">
         <v>268</v>
       </c>
@@ -3679,7 +4059,7 @@
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1">
       <c r="A62" t="s">
         <v>272</v>
       </c>
@@ -3709,7 +4089,7 @@
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1">
       <c r="A63" s="4" t="s">
         <v>277</v>
       </c>
@@ -3739,7 +4119,7 @@
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1">
       <c r="A64" s="4" t="s">
         <v>282</v>
       </c>
@@ -3769,7 +4149,7 @@
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:14" ht="15.75" customHeight="1">
       <c r="A65" t="s">
         <v>287</v>
       </c>
@@ -3799,7 +4179,7 @@
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:14" ht="15.75" customHeight="1">
       <c r="A66" s="4" t="s">
         <v>292</v>
       </c>
@@ -3827,7 +4207,7 @@
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:14" ht="15.75" customHeight="1">
       <c r="A67" t="s">
         <v>296</v>
       </c>
@@ -3855,7 +4235,7 @@
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:14" ht="15.75" customHeight="1">
       <c r="A68" s="4" t="s">
         <v>300</v>
       </c>
@@ -3883,7 +4263,7 @@
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:14" ht="15.75" customHeight="1">
       <c r="A69" t="s">
         <v>304</v>
       </c>
@@ -3911,7 +4291,7 @@
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:14" ht="15.75" customHeight="1">
       <c r="A70" t="s">
         <v>308</v>
       </c>
@@ -3941,7 +4321,7 @@
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:14" ht="15.75" customHeight="1">
       <c r="A71" s="4" t="s">
         <v>313</v>
       </c>
@@ -3969,7 +4349,7 @@
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:14" ht="15.75" customHeight="1">
       <c r="A72" s="4" t="s">
         <v>317</v>
       </c>
@@ -3999,7 +4379,7 @@
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:14" ht="15.75" customHeight="1">
       <c r="A73" t="s">
         <v>322</v>
       </c>
@@ -4029,7 +4409,7 @@
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:14" ht="15.75" customHeight="1">
       <c r="A74" s="4" t="s">
         <v>327</v>
       </c>
@@ -4057,7 +4437,7 @@
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:14" ht="15.75" customHeight="1">
       <c r="A75" s="37" t="s">
         <v>331</v>
       </c>
@@ -4087,7 +4467,7 @@
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:14" ht="15.75" customHeight="1">
       <c r="A76" s="37" t="s">
         <v>337</v>
       </c>
@@ -4117,7 +4497,7 @@
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:14" ht="15.75" customHeight="1">
       <c r="A77" s="37" t="s">
         <v>342</v>
       </c>
@@ -4147,7 +4527,7 @@
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:14" ht="15.75" customHeight="1">
       <c r="A78" s="37" t="s">
         <v>346</v>
       </c>
@@ -4177,7 +4557,7 @@
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:14" ht="15.75" customHeight="1">
       <c r="A79" s="37" t="s">
         <v>351</v>
       </c>
@@ -4207,7 +4587,7 @@
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:14" ht="15.75" customHeight="1">
       <c r="A80" s="41" t="s">
         <v>356</v>
       </c>
@@ -4237,21 +4617,21 @@
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:14" ht="15.75" customHeight="1">
       <c r="A81" s="41" t="s">
         <v>361</v>
       </c>
       <c r="B81" s="37">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="C81" s="37">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="D81" s="37">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="E81" s="37">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="F81" s="37" t="s">
         <v>26</v>
@@ -4267,7 +4647,7 @@
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:14" ht="15.75" customHeight="1">
       <c r="A82" s="41" t="s">
         <v>362</v>
       </c>
@@ -4297,21 +4677,21 @@
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:14" ht="15.75" customHeight="1">
       <c r="A83" s="42" t="s">
         <v>367</v>
       </c>
       <c r="B83" s="37">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C83" s="37">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D83" s="37">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E83" s="37">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="F83" s="37" t="s">
         <v>26</v>
@@ -4327,7 +4707,7 @@
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:14" ht="15.75" customHeight="1">
       <c r="A84" s="42" t="s">
         <v>368</v>
       </c>
@@ -4357,14 +4737,26 @@
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
+    <row r="85" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A85" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="B85" s="37" t="s">
+        <v>374</v>
+      </c>
+      <c r="C85" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="D85" s="37" t="s">
+        <v>376</v>
+      </c>
       <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
+      <c r="F85" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" s="37" t="s">
+        <v>377</v>
+      </c>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
@@ -4373,7 +4765,7 @@
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:14" ht="15.75" customHeight="1">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -4389,7 +4781,7 @@
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:14" ht="15.75" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -4405,7 +4797,7 @@
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:14" ht="15.75" customHeight="1">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -4421,7 +4813,7 @@
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:14" ht="15.75" customHeight="1">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -4437,7 +4829,7 @@
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:14" ht="15.75" customHeight="1">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -4453,7 +4845,7 @@
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:14" ht="15.75" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -4469,7 +4861,7 @@
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:14" ht="15.75" customHeight="1">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -4485,7 +4877,7 @@
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:14" ht="15.75" customHeight="1">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -4501,7 +4893,7 @@
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:14" ht="15.75" customHeight="1">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -4517,7 +4909,7 @@
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:14" ht="15.75" customHeight="1">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -4533,7 +4925,7 @@
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:14" ht="15.75" customHeight="1">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -4549,7 +4941,7 @@
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:14" ht="15.75" customHeight="1">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -4565,7 +4957,7 @@
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:14" ht="15.75" customHeight="1">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -4581,7 +4973,7 @@
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:14" ht="15.75" customHeight="1">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -4597,7 +4989,7 @@
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:14" ht="15.75" customHeight="1">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -4613,7 +5005,7 @@
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:14" ht="15.75" customHeight="1">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -4629,7 +5021,7 @@
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:14" ht="15.75" customHeight="1">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -4645,7 +5037,7 @@
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:14" ht="15.75" customHeight="1">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -4661,7 +5053,7 @@
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:14" ht="15.75" customHeight="1">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -4677,7 +5069,7 @@
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:14" ht="15.75" customHeight="1">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -4693,7 +5085,7 @@
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:14" ht="15.75" customHeight="1">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -4709,7 +5101,7 @@
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:14" ht="15.75" customHeight="1">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -4725,7 +5117,7 @@
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:14" ht="15.75" customHeight="1">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -4741,7 +5133,7 @@
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:14" ht="15.75" customHeight="1">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -4757,7 +5149,7 @@
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:14" ht="15.75" customHeight="1">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -4773,7 +5165,7 @@
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:14" ht="15.75" customHeight="1">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -4789,7 +5181,7 @@
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:14" ht="15.75" customHeight="1">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -4805,7 +5197,7 @@
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:14" ht="15.75" customHeight="1">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -4821,7 +5213,7 @@
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:14" ht="15.75" customHeight="1">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -4837,7 +5229,7 @@
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:14" ht="15.75" customHeight="1">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -4853,7 +5245,7 @@
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:14" ht="15.75" customHeight="1">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -4869,7 +5261,7 @@
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:14" ht="15.75" customHeight="1">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -4885,7 +5277,7 @@
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:14" ht="15.75" customHeight="1">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -4901,7 +5293,7 @@
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:14" ht="15.75" customHeight="1">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -4917,7 +5309,7 @@
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:14" ht="15.75" customHeight="1">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -4933,7 +5325,7 @@
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:14" ht="15.75" customHeight="1">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -4949,7 +5341,7 @@
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:14" ht="15.75" customHeight="1">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -4965,7 +5357,7 @@
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:14" ht="15.75" customHeight="1">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -4981,7 +5373,7 @@
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:14" ht="15.75" customHeight="1">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -4997,7 +5389,7 @@
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:14" ht="15.75" customHeight="1">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -5013,7 +5405,7 @@
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:14" ht="15.75" customHeight="1">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -5029,7 +5421,7 @@
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:14" ht="15.75" customHeight="1">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -5045,7 +5437,7 @@
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:14" ht="15.75" customHeight="1">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -5061,7 +5453,7 @@
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:14" ht="15.75" customHeight="1">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -5077,7 +5469,7 @@
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:14" ht="15.75" customHeight="1">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -5093,7 +5485,7 @@
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:14" ht="15.75" customHeight="1">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -5109,7 +5501,7 @@
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:14" ht="15.75" customHeight="1">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -5125,7 +5517,7 @@
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:14" ht="15.75" customHeight="1">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -5141,7 +5533,7 @@
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:14" ht="15.75" customHeight="1">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -5157,7 +5549,7 @@
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:14" ht="15.75" customHeight="1">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -5173,7 +5565,7 @@
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:14" ht="15.75" customHeight="1">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -5189,7 +5581,7 @@
       <c r="M136" s="4"/>
       <c r="N136" s="4"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:14" ht="15.75" customHeight="1">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -5205,7 +5597,7 @@
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:14" ht="15.75" customHeight="1">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -5221,7 +5613,7 @@
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:14" ht="15.75" customHeight="1">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -5237,7 +5629,7 @@
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:14" ht="15.75" customHeight="1">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -5253,7 +5645,7 @@
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:14" ht="15.75" customHeight="1">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -5269,7 +5661,7 @@
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:14" ht="15.75" customHeight="1">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -5285,7 +5677,7 @@
       <c r="M142" s="4"/>
       <c r="N142" s="4"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:14" ht="15.75" customHeight="1">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -5301,7 +5693,7 @@
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:14" ht="15.75" customHeight="1">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -5317,7 +5709,7 @@
       <c r="M144" s="4"/>
       <c r="N144" s="4"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:14" ht="15.75" customHeight="1">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -5333,7 +5725,7 @@
       <c r="M145" s="4"/>
       <c r="N145" s="4"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:14" ht="15.75" customHeight="1">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -5349,7 +5741,7 @@
       <c r="M146" s="4"/>
       <c r="N146" s="4"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:14" ht="15.75" customHeight="1">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -5365,7 +5757,7 @@
       <c r="M147" s="4"/>
       <c r="N147" s="4"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:14" ht="15.75" customHeight="1">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -5381,7 +5773,7 @@
       <c r="M148" s="4"/>
       <c r="N148" s="4"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:14" ht="15.75" customHeight="1">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -5397,7 +5789,7 @@
       <c r="M149" s="4"/>
       <c r="N149" s="4"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:14" ht="15.75" customHeight="1">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -5413,7 +5805,7 @@
       <c r="M150" s="4"/>
       <c r="N150" s="4"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:14" ht="15.75" customHeight="1">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -5429,7 +5821,7 @@
       <c r="M151" s="4"/>
       <c r="N151" s="4"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:14" ht="15.75" customHeight="1">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -5445,7 +5837,7 @@
       <c r="M152" s="4"/>
       <c r="N152" s="4"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:14" ht="15.75" customHeight="1">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -5461,7 +5853,7 @@
       <c r="M153" s="4"/>
       <c r="N153" s="4"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:14" ht="15.75" customHeight="1">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -5477,7 +5869,7 @@
       <c r="M154" s="4"/>
       <c r="N154" s="4"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:14" ht="15.75" customHeight="1">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -5493,7 +5885,7 @@
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:14" ht="15.75" customHeight="1">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -5509,7 +5901,7 @@
       <c r="M156" s="4"/>
       <c r="N156" s="4"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:14" ht="15.75" customHeight="1">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -5525,7 +5917,7 @@
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:14" ht="15.75" customHeight="1">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -5541,7 +5933,7 @@
       <c r="M158" s="4"/>
       <c r="N158" s="4"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:14" ht="15.75" customHeight="1">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -5557,7 +5949,7 @@
       <c r="M159" s="4"/>
       <c r="N159" s="4"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:14" ht="15.75" customHeight="1">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -5573,7 +5965,7 @@
       <c r="M160" s="4"/>
       <c r="N160" s="4"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:14" ht="15.75" customHeight="1">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -5589,7 +5981,7 @@
       <c r="M161" s="4"/>
       <c r="N161" s="4"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:14" ht="15.75" customHeight="1">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -5605,7 +5997,7 @@
       <c r="M162" s="4"/>
       <c r="N162" s="4"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:14" ht="15.75" customHeight="1">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -5621,7 +6013,7 @@
       <c r="M163" s="4"/>
       <c r="N163" s="4"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:14" ht="15.75" customHeight="1">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -5637,7 +6029,7 @@
       <c r="M164" s="4"/>
       <c r="N164" s="4"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:14" ht="15.75" customHeight="1">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -5653,7 +6045,7 @@
       <c r="M165" s="4"/>
       <c r="N165" s="4"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:14" ht="15.75" customHeight="1">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -5669,7 +6061,7 @@
       <c r="M166" s="4"/>
       <c r="N166" s="4"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:14" ht="15.75" customHeight="1">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -5685,7 +6077,7 @@
       <c r="M167" s="4"/>
       <c r="N167" s="4"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:14" ht="15.75" customHeight="1">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -5701,7 +6093,7 @@
       <c r="M168" s="4"/>
       <c r="N168" s="4"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:14" ht="15.75" customHeight="1">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -5717,7 +6109,7 @@
       <c r="M169" s="4"/>
       <c r="N169" s="4"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:14" ht="15.75" customHeight="1">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -5733,7 +6125,7 @@
       <c r="M170" s="4"/>
       <c r="N170" s="4"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:14" ht="15.75" customHeight="1">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -5749,7 +6141,7 @@
       <c r="M171" s="4"/>
       <c r="N171" s="4"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:14" ht="15.75" customHeight="1">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -5765,7 +6157,7 @@
       <c r="M172" s="4"/>
       <c r="N172" s="4"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:14" ht="15.75" customHeight="1">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -5781,7 +6173,7 @@
       <c r="M173" s="4"/>
       <c r="N173" s="4"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:14" ht="15.75" customHeight="1">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -5797,7 +6189,7 @@
       <c r="M174" s="4"/>
       <c r="N174" s="4"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:14" ht="15.75" customHeight="1">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -5813,7 +6205,7 @@
       <c r="M175" s="4"/>
       <c r="N175" s="4"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:14" ht="15.75" customHeight="1">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -5829,7 +6221,7 @@
       <c r="M176" s="4"/>
       <c r="N176" s="4"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:14" ht="15.75" customHeight="1">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -5845,7 +6237,7 @@
       <c r="M177" s="4"/>
       <c r="N177" s="4"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:14" ht="15.75" customHeight="1">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -5861,7 +6253,7 @@
       <c r="M178" s="4"/>
       <c r="N178" s="4"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:14" ht="15.75" customHeight="1">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -5877,7 +6269,7 @@
       <c r="M179" s="4"/>
       <c r="N179" s="4"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:14" ht="15.75" customHeight="1">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -5893,7 +6285,7 @@
       <c r="M180" s="4"/>
       <c r="N180" s="4"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:14" ht="15.75" customHeight="1">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -5909,7 +6301,7 @@
       <c r="M181" s="4"/>
       <c r="N181" s="4"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:14" ht="15.75" customHeight="1">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -5925,7 +6317,7 @@
       <c r="M182" s="4"/>
       <c r="N182" s="4"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:14" ht="15.75" customHeight="1">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -5941,7 +6333,7 @@
       <c r="M183" s="4"/>
       <c r="N183" s="4"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:14" ht="15.75" customHeight="1">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -5957,7 +6349,7 @@
       <c r="M184" s="4"/>
       <c r="N184" s="4"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:14" ht="15.75" customHeight="1">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -5973,7 +6365,7 @@
       <c r="M185" s="4"/>
       <c r="N185" s="4"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:14" ht="15.75" customHeight="1">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -5989,7 +6381,7 @@
       <c r="M186" s="4"/>
       <c r="N186" s="4"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:14" ht="15.75" customHeight="1">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -6005,7 +6397,7 @@
       <c r="M187" s="4"/>
       <c r="N187" s="4"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:14" ht="15.75" customHeight="1">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -6021,7 +6413,7 @@
       <c r="M188" s="4"/>
       <c r="N188" s="4"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:14" ht="15.75" customHeight="1">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -6037,7 +6429,7 @@
       <c r="M189" s="4"/>
       <c r="N189" s="4"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:14" ht="15.75" customHeight="1">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -6053,7 +6445,7 @@
       <c r="M190" s="4"/>
       <c r="N190" s="4"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:14" ht="15.75" customHeight="1">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -6069,7 +6461,7 @@
       <c r="M191" s="4"/>
       <c r="N191" s="4"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:14" ht="15.75" customHeight="1">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -6085,7 +6477,7 @@
       <c r="M192" s="4"/>
       <c r="N192" s="4"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:14" ht="15.75" customHeight="1">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -6101,7 +6493,7 @@
       <c r="M193" s="4"/>
       <c r="N193" s="4"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:14" ht="15.75" customHeight="1">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -6117,7 +6509,7 @@
       <c r="M194" s="4"/>
       <c r="N194" s="4"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:14" ht="15.75" customHeight="1">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -6133,7 +6525,7 @@
       <c r="M195" s="4"/>
       <c r="N195" s="4"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:14" ht="15.75" customHeight="1">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -6149,7 +6541,7 @@
       <c r="M196" s="4"/>
       <c r="N196" s="4"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:14" ht="15.75" customHeight="1">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -6165,7 +6557,7 @@
       <c r="M197" s="4"/>
       <c r="N197" s="4"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:14" ht="15.75" customHeight="1">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -6181,7 +6573,7 @@
       <c r="M198" s="4"/>
       <c r="N198" s="4"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:14" ht="15.75" customHeight="1">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -6197,7 +6589,7 @@
       <c r="M199" s="4"/>
       <c r="N199" s="4"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:14" ht="15.75" customHeight="1">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -6213,7 +6605,7 @@
       <c r="M200" s="4"/>
       <c r="N200" s="4"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:14" ht="15.75" customHeight="1">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -6229,7 +6621,7 @@
       <c r="M201" s="4"/>
       <c r="N201" s="4"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:14" ht="15.75" customHeight="1">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -6245,7 +6637,7 @@
       <c r="M202" s="4"/>
       <c r="N202" s="4"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:14" ht="15.75" customHeight="1">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -6261,7 +6653,7 @@
       <c r="M203" s="4"/>
       <c r="N203" s="4"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:14" ht="15.75" customHeight="1">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -6277,7 +6669,7 @@
       <c r="M204" s="4"/>
       <c r="N204" s="4"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:14" ht="15.75" customHeight="1">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -6293,7 +6685,7 @@
       <c r="M205" s="4"/>
       <c r="N205" s="4"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:14" ht="15.75" customHeight="1">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -6309,7 +6701,7 @@
       <c r="M206" s="4"/>
       <c r="N206" s="4"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:14" ht="15.75" customHeight="1">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -6325,7 +6717,7 @@
       <c r="M207" s="4"/>
       <c r="N207" s="4"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:14" ht="15.75" customHeight="1">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -6341,7 +6733,7 @@
       <c r="M208" s="4"/>
       <c r="N208" s="4"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:14" ht="15.75" customHeight="1">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -6357,7 +6749,7 @@
       <c r="M209" s="4"/>
       <c r="N209" s="4"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:14" ht="15.75" customHeight="1">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -6373,7 +6765,7 @@
       <c r="M210" s="4"/>
       <c r="N210" s="4"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:14" ht="15.75" customHeight="1">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -6389,7 +6781,7 @@
       <c r="M211" s="4"/>
       <c r="N211" s="4"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:14" ht="15.75" customHeight="1">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -6405,7 +6797,7 @@
       <c r="M212" s="4"/>
       <c r="N212" s="4"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:14" ht="15.75" customHeight="1">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -6421,7 +6813,7 @@
       <c r="M213" s="4"/>
       <c r="N213" s="4"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:14" ht="15.75" customHeight="1">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -6437,7 +6829,7 @@
       <c r="M214" s="4"/>
       <c r="N214" s="4"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:14" ht="15.75" customHeight="1">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -6453,7 +6845,7 @@
       <c r="M215" s="4"/>
       <c r="N215" s="4"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:14" ht="15.75" customHeight="1">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -6469,7 +6861,7 @@
       <c r="M216" s="4"/>
       <c r="N216" s="4"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:14" ht="15.75" customHeight="1">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -6485,7 +6877,7 @@
       <c r="M217" s="4"/>
       <c r="N217" s="4"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:14" ht="15.75" customHeight="1">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -6501,7 +6893,7 @@
       <c r="M218" s="4"/>
       <c r="N218" s="4"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:14" ht="15.75" customHeight="1">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -6517,7 +6909,7 @@
       <c r="M219" s="4"/>
       <c r="N219" s="4"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:14" ht="15.75" customHeight="1">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -6533,7 +6925,7 @@
       <c r="M220" s="4"/>
       <c r="N220" s="4"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:14" ht="15.75" customHeight="1">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -6549,7 +6941,7 @@
       <c r="M221" s="4"/>
       <c r="N221" s="4"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:14" ht="15.75" customHeight="1">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -6565,7 +6957,7 @@
       <c r="M222" s="4"/>
       <c r="N222" s="4"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:14" ht="15.75" customHeight="1">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -6581,7 +6973,7 @@
       <c r="M223" s="4"/>
       <c r="N223" s="4"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:14" ht="15.75" customHeight="1">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -6597,7 +6989,7 @@
       <c r="M224" s="4"/>
       <c r="N224" s="4"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:14" ht="15.75" customHeight="1">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -6613,7 +7005,7 @@
       <c r="M225" s="4"/>
       <c r="N225" s="4"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:14" ht="15.75" customHeight="1">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -6629,7 +7021,7 @@
       <c r="M226" s="4"/>
       <c r="N226" s="4"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:14" ht="15.75" customHeight="1">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -6645,7 +7037,7 @@
       <c r="M227" s="4"/>
       <c r="N227" s="4"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:14" ht="15.75" customHeight="1">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -6661,7 +7053,7 @@
       <c r="M228" s="4"/>
       <c r="N228" s="4"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:14" ht="15.75" customHeight="1">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -6677,7 +7069,7 @@
       <c r="M229" s="4"/>
       <c r="N229" s="4"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:14" ht="15.75" customHeight="1">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -6693,7 +7085,7 @@
       <c r="M230" s="4"/>
       <c r="N230" s="4"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:14" ht="15.75" customHeight="1">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -6709,7 +7101,7 @@
       <c r="M231" s="4"/>
       <c r="N231" s="4"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:14" ht="15.75" customHeight="1">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -6725,7 +7117,7 @@
       <c r="M232" s="4"/>
       <c r="N232" s="4"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:14" ht="15.75" customHeight="1">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -6741,7 +7133,7 @@
       <c r="M233" s="4"/>
       <c r="N233" s="4"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:14" ht="15.75" customHeight="1">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -6757,7 +7149,7 @@
       <c r="M234" s="4"/>
       <c r="N234" s="4"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:14" ht="15.75" customHeight="1">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -6773,7 +7165,7 @@
       <c r="M235" s="4"/>
       <c r="N235" s="4"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:14" ht="15.75" customHeight="1">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -6789,7 +7181,7 @@
       <c r="M236" s="4"/>
       <c r="N236" s="4"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:14" ht="15.75" customHeight="1">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -6805,7 +7197,7 @@
       <c r="M237" s="4"/>
       <c r="N237" s="4"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:14" ht="15.75" customHeight="1">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -6821,7 +7213,7 @@
       <c r="M238" s="4"/>
       <c r="N238" s="4"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:14" ht="15.75" customHeight="1">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -6837,7 +7229,7 @@
       <c r="M239" s="4"/>
       <c r="N239" s="4"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:14" ht="15.75" customHeight="1">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -6853,7 +7245,7 @@
       <c r="M240" s="4"/>
       <c r="N240" s="4"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:14" ht="15.75" customHeight="1">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -6869,7 +7261,7 @@
       <c r="M241" s="4"/>
       <c r="N241" s="4"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:14" ht="15.75" customHeight="1">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -6885,7 +7277,7 @@
       <c r="M242" s="4"/>
       <c r="N242" s="4"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:14" ht="15.75" customHeight="1">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -6901,7 +7293,7 @@
       <c r="M243" s="4"/>
       <c r="N243" s="4"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:14" ht="15.75" customHeight="1">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -6917,7 +7309,7 @@
       <c r="M244" s="4"/>
       <c r="N244" s="4"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:14" ht="15.75" customHeight="1">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -6933,7 +7325,7 @@
       <c r="M245" s="4"/>
       <c r="N245" s="4"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:14" ht="15.75" customHeight="1">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -6949,7 +7341,7 @@
       <c r="M246" s="4"/>
       <c r="N246" s="4"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="1:14" ht="15.75" customHeight="1">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -6965,7 +7357,7 @@
       <c r="M247" s="4"/>
       <c r="N247" s="4"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="1:14" ht="15.75" customHeight="1">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -6981,7 +7373,7 @@
       <c r="M248" s="4"/>
       <c r="N248" s="4"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:14" ht="15.75" customHeight="1">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -6997,7 +7389,7 @@
       <c r="M249" s="4"/>
       <c r="N249" s="4"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:14" ht="15.75" customHeight="1">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -7013,7 +7405,7 @@
       <c r="M250" s="4"/>
       <c r="N250" s="4"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:14" ht="15.75" customHeight="1">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -7029,7 +7421,7 @@
       <c r="M251" s="4"/>
       <c r="N251" s="4"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:14" ht="15.75" customHeight="1">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -7045,7 +7437,7 @@
       <c r="M252" s="4"/>
       <c r="N252" s="4"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:14" ht="15.75" customHeight="1">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -7061,7 +7453,7 @@
       <c r="M253" s="4"/>
       <c r="N253" s="4"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:14" ht="15.75" customHeight="1">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -7077,7 +7469,7 @@
       <c r="M254" s="4"/>
       <c r="N254" s="4"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:14" ht="15.75" customHeight="1">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -7093,7 +7485,7 @@
       <c r="M255" s="4"/>
       <c r="N255" s="4"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:14" ht="15.75" customHeight="1">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -7109,7 +7501,7 @@
       <c r="M256" s="4"/>
       <c r="N256" s="4"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:14" ht="15.75" customHeight="1">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -7125,7 +7517,7 @@
       <c r="M257" s="4"/>
       <c r="N257" s="4"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:14" ht="15.75" customHeight="1">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -7141,7 +7533,7 @@
       <c r="M258" s="4"/>
       <c r="N258" s="4"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:14" ht="15.75" customHeight="1">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -7157,7 +7549,7 @@
       <c r="M259" s="4"/>
       <c r="N259" s="4"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:14" ht="15.75" customHeight="1">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -7173,7 +7565,7 @@
       <c r="M260" s="4"/>
       <c r="N260" s="4"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:14" ht="15.75" customHeight="1">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -7189,7 +7581,7 @@
       <c r="M261" s="4"/>
       <c r="N261" s="4"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:14" ht="15.75" customHeight="1">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -7205,7 +7597,7 @@
       <c r="M262" s="4"/>
       <c r="N262" s="4"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:14" ht="15.75" customHeight="1">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -7221,7 +7613,7 @@
       <c r="M263" s="4"/>
       <c r="N263" s="4"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="1:14" ht="15.75" customHeight="1">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -7237,7 +7629,7 @@
       <c r="M264" s="4"/>
       <c r="N264" s="4"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="1:14" ht="15.75" customHeight="1">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -7253,7 +7645,7 @@
       <c r="M265" s="4"/>
       <c r="N265" s="4"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="1:14" ht="15.75" customHeight="1">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -7269,7 +7661,7 @@
       <c r="M266" s="4"/>
       <c r="N266" s="4"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="1:14" ht="15.75" customHeight="1">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -7285,7 +7677,7 @@
       <c r="M267" s="4"/>
       <c r="N267" s="4"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="1:14" ht="15.75" customHeight="1">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -7301,7 +7693,7 @@
       <c r="M268" s="4"/>
       <c r="N268" s="4"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="1:14" ht="15.75" customHeight="1">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -7317,7 +7709,7 @@
       <c r="M269" s="4"/>
       <c r="N269" s="4"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="1:14" ht="15.75" customHeight="1">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -7333,7 +7725,7 @@
       <c r="M270" s="4"/>
       <c r="N270" s="4"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="1:14" ht="15.75" customHeight="1">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -7349,7 +7741,7 @@
       <c r="M271" s="4"/>
       <c r="N271" s="4"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="1:14" ht="15.75" customHeight="1">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -7365,7 +7757,7 @@
       <c r="M272" s="4"/>
       <c r="N272" s="4"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="1:14" ht="15.75" customHeight="1">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -7381,7 +7773,7 @@
       <c r="M273" s="4"/>
       <c r="N273" s="4"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="1:14" ht="15.75" customHeight="1">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -7397,20 +7789,20 @@
       <c r="M274" s="4"/>
       <c r="N274" s="4"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="275" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="276" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="277" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="278" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="279" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="280" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="281" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="282" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="283" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="284" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="285" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="286" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="287" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="288" spans="1:14" ht="15.75" customHeight="1"/>
     <row r="289" ht="15.75" customHeight="1"/>
     <row r="290" ht="15.75" customHeight="1"/>
     <row r="291" ht="15.75" customHeight="1"/>
@@ -8124,38 +8516,39 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B8:D19">
-      <formula1>Len(B8)&lt;40</formula1>
+  <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B8:D19" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>LEN(B8)&lt;40</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A8:A19 E8:E19">
-      <formula1>Len(A8)&lt;150</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A8:A19 E8:E19" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>LEN(A8)&lt;150</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.71"/>
-    <col customWidth="1" min="2" max="2" width="77.86"/>
-    <col customWidth="1" min="3" max="12" width="14.43"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="77.88671875" customWidth="1"/>
+    <col min="3" max="12" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -8169,7 +8562,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -8185,7 +8578,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="7"/>
       <c r="B3" s="6"/>
       <c r="C3" s="4"/>
@@ -8199,7 +8592,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -8215,7 +8608,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="6"/>
       <c r="C5" s="4"/>
@@ -8229,7 +8622,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="6"/>
       <c r="C6" s="4"/>
@@ -8243,7 +8636,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
@@ -8261,7 +8654,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>6</v>
       </c>
@@ -8279,12 +8672,12 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="14">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -8297,7 +8690,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>11</v>
       </c>
@@ -8315,7 +8708,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>13</v>
       </c>
@@ -8333,7 +8726,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>15</v>
       </c>
@@ -8351,7 +8744,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>17</v>
       </c>
@@ -8369,7 +8762,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>19</v>
       </c>
@@ -8387,7 +8780,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="14" t="s">
         <v>22</v>
       </c>
@@ -8405,7 +8798,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>24</v>
       </c>
@@ -8423,7 +8816,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>25</v>
       </c>
@@ -8441,7 +8834,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>27</v>
       </c>
@@ -8459,7 +8852,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="20" t="s">
         <v>29</v>
       </c>
@@ -8477,7 +8870,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:12" ht="13.2">
       <c r="A20" s="20" t="s">
         <v>32</v>
       </c>
@@ -8495,7 +8888,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="20" t="s">
         <v>34</v>
       </c>
@@ -8513,7 +8906,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="4"/>
@@ -8527,7 +8920,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="4"/>
@@ -8541,7 +8934,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="4"/>
@@ -8555,7 +8948,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="4"/>
@@ -8569,7 +8962,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="4"/>
@@ -8583,7 +8976,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -8597,7 +8990,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -8611,7 +9004,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -8625,7 +9018,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -8639,7 +9032,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -8653,7 +9046,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -8667,7 +9060,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -8681,7 +9074,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -8695,7 +9088,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -8709,7 +9102,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -8723,7 +9116,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -8737,7 +9130,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -8751,7 +9144,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -8765,7 +9158,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -8779,7 +9172,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -8793,7 +9186,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -8807,7 +9200,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -8821,7 +9214,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -8835,7 +9228,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -8849,7 +9242,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -8863,7 +9256,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -8877,7 +9270,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -8891,7 +9284,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:12" ht="15.75" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -8905,7 +9298,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:12" ht="15.75" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -8919,7 +9312,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:12" ht="15.75" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -8933,7 +9326,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:12" ht="15.75" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -8947,7 +9340,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:12" ht="15.75" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -8961,7 +9354,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:12" ht="15.75" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -8975,7 +9368,7 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:12" ht="15.75" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -8989,7 +9382,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:12" ht="15.75" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -9003,7 +9396,7 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:12" ht="15.75" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -9017,7 +9410,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:12" ht="15.75" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -9031,7 +9424,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:12" ht="15.75" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -9045,7 +9438,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:12" ht="15.75" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -9059,7 +9452,7 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:12" ht="15.75" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -9073,7 +9466,7 @@
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:12" ht="15.75" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -9087,7 +9480,7 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:12" ht="15.75" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -9101,7 +9494,7 @@
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:12" ht="15.75" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -9115,7 +9508,7 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:12" ht="15.75" customHeight="1">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -9129,7 +9522,7 @@
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:12" ht="15.75" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -9143,7 +9536,7 @@
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:12" ht="15.75" customHeight="1">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -9157,7 +9550,7 @@
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:12" ht="15.75" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -9171,7 +9564,7 @@
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:12" ht="15.75" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -9185,7 +9578,7 @@
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:12" ht="15.75" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -9199,7 +9592,7 @@
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:12" ht="15.75" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -9213,7 +9606,7 @@
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:12" ht="15.75" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -9227,7 +9620,7 @@
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:12" ht="15.75" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -9241,7 +9634,7 @@
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:12" ht="15.75" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -9255,7 +9648,7 @@
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:12" ht="15.75" customHeight="1">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -9269,7 +9662,7 @@
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:12" ht="15.75" customHeight="1">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -9283,7 +9676,7 @@
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:12" ht="15.75" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -9297,7 +9690,7 @@
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:12" ht="15.75" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -9311,7 +9704,7 @@
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:12" ht="15.75" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -9325,7 +9718,7 @@
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:12" ht="15.75" customHeight="1">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -9339,7 +9732,7 @@
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:12" ht="15.75" customHeight="1">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -9353,7 +9746,7 @@
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:12" ht="15.75" customHeight="1">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -9367,7 +9760,7 @@
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:12" ht="15.75" customHeight="1">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -9381,7 +9774,7 @@
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:12" ht="15.75" customHeight="1">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -9395,7 +9788,7 @@
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:12" ht="15.75" customHeight="1">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -9409,7 +9802,7 @@
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:12" ht="15.75" customHeight="1">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -9423,7 +9816,7 @@
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:12" ht="15.75" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -9437,7 +9830,7 @@
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:12" ht="15.75" customHeight="1">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -9451,7 +9844,7 @@
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:12" ht="15.75" customHeight="1">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -9465,7 +9858,7 @@
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:12" ht="15.75" customHeight="1">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -9479,7 +9872,7 @@
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:12" ht="15.75" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -9493,7 +9886,7 @@
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:12" ht="15.75" customHeight="1">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -9507,7 +9900,7 @@
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:12" ht="15.75" customHeight="1">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -9521,7 +9914,7 @@
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:12" ht="15.75" customHeight="1">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -9535,7 +9928,7 @@
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:12" ht="15.75" customHeight="1">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -9549,7 +9942,7 @@
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:12" ht="15.75" customHeight="1">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -9563,7 +9956,7 @@
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:12" ht="15.75" customHeight="1">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -9577,7 +9970,7 @@
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:12" ht="15.75" customHeight="1">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -9591,7 +9984,7 @@
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:12" ht="15.75" customHeight="1">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -9605,7 +9998,7 @@
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:12" ht="15.75" customHeight="1">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -9619,7 +10012,7 @@
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:12" ht="15.75" customHeight="1">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -9633,7 +10026,7 @@
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:12" ht="15.75" customHeight="1">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -9647,7 +10040,7 @@
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:12" ht="15.75" customHeight="1">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -9661,7 +10054,7 @@
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:12" ht="15.75" customHeight="1">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -9675,7 +10068,7 @@
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:12" ht="15.75" customHeight="1">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -9689,7 +10082,7 @@
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:12" ht="15.75" customHeight="1">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -9703,7 +10096,7 @@
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:12" ht="15.75" customHeight="1">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -9717,7 +10110,7 @@
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:12" ht="15.75" customHeight="1">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -9731,7 +10124,7 @@
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:12" ht="15.75" customHeight="1">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -9745,7 +10138,7 @@
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:12" ht="15.75" customHeight="1">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -9759,7 +10152,7 @@
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:12" ht="15.75" customHeight="1">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -9773,7 +10166,7 @@
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:12" ht="15.75" customHeight="1">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -9787,7 +10180,7 @@
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:12" ht="15.75" customHeight="1">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -9801,7 +10194,7 @@
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:12" ht="15.75" customHeight="1">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -9815,7 +10208,7 @@
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:12" ht="15.75" customHeight="1">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -9829,7 +10222,7 @@
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:12" ht="15.75" customHeight="1">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -9843,7 +10236,7 @@
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:12" ht="15.75" customHeight="1">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -9857,7 +10250,7 @@
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:12" ht="15.75" customHeight="1">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -9871,7 +10264,7 @@
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:12" ht="15.75" customHeight="1">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -9885,7 +10278,7 @@
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:12" ht="15.75" customHeight="1">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -9899,7 +10292,7 @@
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:12" ht="15.75" customHeight="1">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -9913,7 +10306,7 @@
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:12" ht="15.75" customHeight="1">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -9927,7 +10320,7 @@
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:12" ht="15.75" customHeight="1">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -9941,7 +10334,7 @@
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:12" ht="15.75" customHeight="1">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -9955,7 +10348,7 @@
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:12" ht="15.75" customHeight="1">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -9969,7 +10362,7 @@
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:12" ht="15.75" customHeight="1">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -9983,7 +10376,7 @@
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:12" ht="15.75" customHeight="1">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -9997,7 +10390,7 @@
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:12" ht="15.75" customHeight="1">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -10011,7 +10404,7 @@
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:12" ht="15.75" customHeight="1">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -10025,7 +10418,7 @@
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:12" ht="15.75" customHeight="1">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -10039,7 +10432,7 @@
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:12" ht="15.75" customHeight="1">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -10053,7 +10446,7 @@
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:12" ht="15.75" customHeight="1">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -10067,7 +10460,7 @@
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:12" ht="15.75" customHeight="1">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -10081,7 +10474,7 @@
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:12" ht="15.75" customHeight="1">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -10095,7 +10488,7 @@
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:12" ht="15.75" customHeight="1">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -10109,7 +10502,7 @@
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:12" ht="15.75" customHeight="1">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -10123,7 +10516,7 @@
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:12" ht="15.75" customHeight="1">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -10137,7 +10530,7 @@
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:12" ht="15.75" customHeight="1">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -10151,7 +10544,7 @@
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:12" ht="15.75" customHeight="1">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -10165,7 +10558,7 @@
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:12" ht="15.75" customHeight="1">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -10179,7 +10572,7 @@
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:12" ht="15.75" customHeight="1">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -10193,7 +10586,7 @@
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:12" ht="15.75" customHeight="1">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -10207,7 +10600,7 @@
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:12" ht="15.75" customHeight="1">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -10221,7 +10614,7 @@
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:12" ht="15.75" customHeight="1">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -10235,7 +10628,7 @@
       <c r="K144" s="4"/>
       <c r="L144" s="4"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:12" ht="15.75" customHeight="1">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -10249,7 +10642,7 @@
       <c r="K145" s="4"/>
       <c r="L145" s="4"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:12" ht="15.75" customHeight="1">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -10263,7 +10656,7 @@
       <c r="K146" s="4"/>
       <c r="L146" s="4"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:12" ht="15.75" customHeight="1">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -10277,7 +10670,7 @@
       <c r="K147" s="4"/>
       <c r="L147" s="4"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:12" ht="15.75" customHeight="1">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -10291,7 +10684,7 @@
       <c r="K148" s="4"/>
       <c r="L148" s="4"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:12" ht="15.75" customHeight="1">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -10305,7 +10698,7 @@
       <c r="K149" s="4"/>
       <c r="L149" s="4"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:12" ht="15.75" customHeight="1">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -10319,7 +10712,7 @@
       <c r="K150" s="4"/>
       <c r="L150" s="4"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:12" ht="15.75" customHeight="1">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -10333,7 +10726,7 @@
       <c r="K151" s="4"/>
       <c r="L151" s="4"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:12" ht="15.75" customHeight="1">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -10347,7 +10740,7 @@
       <c r="K152" s="4"/>
       <c r="L152" s="4"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:12" ht="15.75" customHeight="1">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -10361,7 +10754,7 @@
       <c r="K153" s="4"/>
       <c r="L153" s="4"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:12" ht="15.75" customHeight="1">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -10375,7 +10768,7 @@
       <c r="K154" s="4"/>
       <c r="L154" s="4"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:12" ht="15.75" customHeight="1">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -10389,7 +10782,7 @@
       <c r="K155" s="4"/>
       <c r="L155" s="4"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:12" ht="15.75" customHeight="1">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -10403,7 +10796,7 @@
       <c r="K156" s="4"/>
       <c r="L156" s="4"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:12" ht="15.75" customHeight="1">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -10417,7 +10810,7 @@
       <c r="K157" s="4"/>
       <c r="L157" s="4"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:12" ht="15.75" customHeight="1">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -10431,7 +10824,7 @@
       <c r="K158" s="4"/>
       <c r="L158" s="4"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:12" ht="15.75" customHeight="1">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -10445,7 +10838,7 @@
       <c r="K159" s="4"/>
       <c r="L159" s="4"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:12" ht="15.75" customHeight="1">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -10459,7 +10852,7 @@
       <c r="K160" s="4"/>
       <c r="L160" s="4"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:12" ht="15.75" customHeight="1">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -10473,7 +10866,7 @@
       <c r="K161" s="4"/>
       <c r="L161" s="4"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:12" ht="15.75" customHeight="1">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -10487,7 +10880,7 @@
       <c r="K162" s="4"/>
       <c r="L162" s="4"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:12" ht="15.75" customHeight="1">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -10501,7 +10894,7 @@
       <c r="K163" s="4"/>
       <c r="L163" s="4"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:12" ht="15.75" customHeight="1">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -10515,7 +10908,7 @@
       <c r="K164" s="4"/>
       <c r="L164" s="4"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:12" ht="15.75" customHeight="1">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -10529,7 +10922,7 @@
       <c r="K165" s="4"/>
       <c r="L165" s="4"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:12" ht="15.75" customHeight="1">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -10543,7 +10936,7 @@
       <c r="K166" s="4"/>
       <c r="L166" s="4"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:12" ht="15.75" customHeight="1">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -10557,7 +10950,7 @@
       <c r="K167" s="4"/>
       <c r="L167" s="4"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:12" ht="15.75" customHeight="1">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -10571,7 +10964,7 @@
       <c r="K168" s="4"/>
       <c r="L168" s="4"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:12" ht="15.75" customHeight="1">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -10585,7 +10978,7 @@
       <c r="K169" s="4"/>
       <c r="L169" s="4"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:12" ht="15.75" customHeight="1">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -10599,7 +10992,7 @@
       <c r="K170" s="4"/>
       <c r="L170" s="4"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:12" ht="15.75" customHeight="1">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -10613,7 +11006,7 @@
       <c r="K171" s="4"/>
       <c r="L171" s="4"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:12" ht="15.75" customHeight="1">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -10627,7 +11020,7 @@
       <c r="K172" s="4"/>
       <c r="L172" s="4"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:12" ht="15.75" customHeight="1">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -10641,7 +11034,7 @@
       <c r="K173" s="4"/>
       <c r="L173" s="4"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:12" ht="15.75" customHeight="1">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -10655,7 +11048,7 @@
       <c r="K174" s="4"/>
       <c r="L174" s="4"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:12" ht="15.75" customHeight="1">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -10669,7 +11062,7 @@
       <c r="K175" s="4"/>
       <c r="L175" s="4"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:12" ht="15.75" customHeight="1">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -10683,7 +11076,7 @@
       <c r="K176" s="4"/>
       <c r="L176" s="4"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:12" ht="15.75" customHeight="1">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -10697,7 +11090,7 @@
       <c r="K177" s="4"/>
       <c r="L177" s="4"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:12" ht="15.75" customHeight="1">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -10711,7 +11104,7 @@
       <c r="K178" s="4"/>
       <c r="L178" s="4"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:12" ht="15.75" customHeight="1">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -10725,7 +11118,7 @@
       <c r="K179" s="4"/>
       <c r="L179" s="4"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:12" ht="15.75" customHeight="1">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -10739,7 +11132,7 @@
       <c r="K180" s="4"/>
       <c r="L180" s="4"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:12" ht="15.75" customHeight="1">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -10753,7 +11146,7 @@
       <c r="K181" s="4"/>
       <c r="L181" s="4"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:12" ht="15.75" customHeight="1">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -10767,7 +11160,7 @@
       <c r="K182" s="4"/>
       <c r="L182" s="4"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:12" ht="15.75" customHeight="1">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -10781,7 +11174,7 @@
       <c r="K183" s="4"/>
       <c r="L183" s="4"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:12" ht="15.75" customHeight="1">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -10795,7 +11188,7 @@
       <c r="K184" s="4"/>
       <c r="L184" s="4"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:12" ht="15.75" customHeight="1">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -10809,7 +11202,7 @@
       <c r="K185" s="4"/>
       <c r="L185" s="4"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:12" ht="15.75" customHeight="1">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -10823,7 +11216,7 @@
       <c r="K186" s="4"/>
       <c r="L186" s="4"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:12" ht="15.75" customHeight="1">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -10837,7 +11230,7 @@
       <c r="K187" s="4"/>
       <c r="L187" s="4"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:12" ht="15.75" customHeight="1">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -10851,7 +11244,7 @@
       <c r="K188" s="4"/>
       <c r="L188" s="4"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:12" ht="15.75" customHeight="1">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -10865,7 +11258,7 @@
       <c r="K189" s="4"/>
       <c r="L189" s="4"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:12" ht="15.75" customHeight="1">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -10879,7 +11272,7 @@
       <c r="K190" s="4"/>
       <c r="L190" s="4"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:12" ht="15.75" customHeight="1">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -10893,7 +11286,7 @@
       <c r="K191" s="4"/>
       <c r="L191" s="4"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:12" ht="15.75" customHeight="1">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -10907,7 +11300,7 @@
       <c r="K192" s="4"/>
       <c r="L192" s="4"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:12" ht="15.75" customHeight="1">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -10921,7 +11314,7 @@
       <c r="K193" s="4"/>
       <c r="L193" s="4"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:12" ht="15.75" customHeight="1">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -10935,7 +11328,7 @@
       <c r="K194" s="4"/>
       <c r="L194" s="4"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:12" ht="15.75" customHeight="1">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -10949,7 +11342,7 @@
       <c r="K195" s="4"/>
       <c r="L195" s="4"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:12" ht="15.75" customHeight="1">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -10963,7 +11356,7 @@
       <c r="K196" s="4"/>
       <c r="L196" s="4"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:12" ht="15.75" customHeight="1">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -10977,7 +11370,7 @@
       <c r="K197" s="4"/>
       <c r="L197" s="4"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:12" ht="15.75" customHeight="1">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -10991,7 +11384,7 @@
       <c r="K198" s="4"/>
       <c r="L198" s="4"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:12" ht="15.75" customHeight="1">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -11005,7 +11398,7 @@
       <c r="K199" s="4"/>
       <c r="L199" s="4"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:12" ht="15.75" customHeight="1">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -11019,7 +11412,7 @@
       <c r="K200" s="4"/>
       <c r="L200" s="4"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:12" ht="15.75" customHeight="1">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -11033,7 +11426,7 @@
       <c r="K201" s="4"/>
       <c r="L201" s="4"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:12" ht="15.75" customHeight="1">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -11047,7 +11440,7 @@
       <c r="K202" s="4"/>
       <c r="L202" s="4"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:12" ht="15.75" customHeight="1">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -11061,7 +11454,7 @@
       <c r="K203" s="4"/>
       <c r="L203" s="4"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:12" ht="15.75" customHeight="1">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -11075,7 +11468,7 @@
       <c r="K204" s="4"/>
       <c r="L204" s="4"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:12" ht="15.75" customHeight="1">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -11089,7 +11482,7 @@
       <c r="K205" s="4"/>
       <c r="L205" s="4"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:12" ht="15.75" customHeight="1">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -11103,7 +11496,7 @@
       <c r="K206" s="4"/>
       <c r="L206" s="4"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:12" ht="15.75" customHeight="1">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -11117,7 +11510,7 @@
       <c r="K207" s="4"/>
       <c r="L207" s="4"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:12" ht="15.75" customHeight="1">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -11131,7 +11524,7 @@
       <c r="K208" s="4"/>
       <c r="L208" s="4"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:12" ht="15.75" customHeight="1">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -11145,7 +11538,7 @@
       <c r="K209" s="4"/>
       <c r="L209" s="4"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:12" ht="15.75" customHeight="1">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -11159,7 +11552,7 @@
       <c r="K210" s="4"/>
       <c r="L210" s="4"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:12" ht="15.75" customHeight="1">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -11173,7 +11566,7 @@
       <c r="K211" s="4"/>
       <c r="L211" s="4"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:12" ht="15.75" customHeight="1">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -11187,7 +11580,7 @@
       <c r="K212" s="4"/>
       <c r="L212" s="4"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:12" ht="15.75" customHeight="1">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -11201,7 +11594,7 @@
       <c r="K213" s="4"/>
       <c r="L213" s="4"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:12" ht="15.75" customHeight="1">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -11215,7 +11608,7 @@
       <c r="K214" s="4"/>
       <c r="L214" s="4"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:12" ht="15.75" customHeight="1">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -11229,7 +11622,7 @@
       <c r="K215" s="4"/>
       <c r="L215" s="4"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:12" ht="15.75" customHeight="1">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -11243,7 +11636,7 @@
       <c r="K216" s="4"/>
       <c r="L216" s="4"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:12" ht="15.75" customHeight="1">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -11257,7 +11650,7 @@
       <c r="K217" s="4"/>
       <c r="L217" s="4"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:12" ht="15.75" customHeight="1">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -11271,7 +11664,7 @@
       <c r="K218" s="4"/>
       <c r="L218" s="4"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:12" ht="15.75" customHeight="1">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -11285,7 +11678,7 @@
       <c r="K219" s="4"/>
       <c r="L219" s="4"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:12" ht="15.75" customHeight="1">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -11299,7 +11692,7 @@
       <c r="K220" s="4"/>
       <c r="L220" s="4"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:12" ht="15.75" customHeight="1">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -11313,9 +11706,9 @@
       <c r="K221" s="4"/>
       <c r="L221" s="4"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -12093,12 +12486,12 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" prompt="Please change the title to the name of your game." sqref="B8:B9">
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" prompt="Please change the title to the name of your game." sqref="B8:B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>ISERROR(SEARCH(("The Fun Trivia Game"),(B8)))</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>